--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Efnb2-Ephb2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Efnb2-Ephb2.xlsx
@@ -528,52 +528,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.7668363135393</v>
+        <v>36.899643</v>
       </c>
       <c r="H2">
-        <v>11.7668363135393</v>
+        <v>110.698929</v>
       </c>
       <c r="I2">
-        <v>0.4979486977462333</v>
+        <v>0.7238945645409351</v>
       </c>
       <c r="J2">
-        <v>0.4979486977462333</v>
+        <v>0.7238945645409351</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.34034842799346</v>
+        <v>6.346253666666667</v>
       </c>
       <c r="N2">
-        <v>6.34034842799346</v>
+        <v>19.038761</v>
       </c>
       <c r="O2">
-        <v>0.9502214088217007</v>
+        <v>0.9446330608455225</v>
       </c>
       <c r="P2">
-        <v>0.9502214088217007</v>
+        <v>0.9446330608455226</v>
       </c>
       <c r="Q2">
-        <v>74.60584212300526</v>
+        <v>234.174494687441</v>
       </c>
       <c r="R2">
-        <v>74.60584212300526</v>
+        <v>2107.570452186969</v>
       </c>
       <c r="S2">
-        <v>0.473161513093357</v>
+        <v>0.6838147382317402</v>
       </c>
       <c r="T2">
-        <v>0.473161513093357</v>
+        <v>0.6838147382317402</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.7668363135393</v>
+        <v>36.899643</v>
       </c>
       <c r="H3">
-        <v>11.7668363135393</v>
+        <v>110.698929</v>
       </c>
       <c r="I3">
-        <v>0.4979486977462333</v>
+        <v>0.7238945645409351</v>
       </c>
       <c r="J3">
-        <v>0.4979486977462333</v>
+        <v>0.7238945645409351</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.332147444158755</v>
+        <v>0.3719673333333333</v>
       </c>
       <c r="N3">
-        <v>0.332147444158755</v>
+        <v>1.115902</v>
       </c>
       <c r="O3">
-        <v>0.04977859117829934</v>
+        <v>0.05536693915447755</v>
       </c>
       <c r="P3">
-        <v>0.04977859117829934</v>
+        <v>0.05536693915447755</v>
       </c>
       <c r="Q3">
-        <v>3.908324607376506</v>
+        <v>13.725461807662</v>
       </c>
       <c r="R3">
-        <v>3.908324607376506</v>
+        <v>123.529156268958</v>
       </c>
       <c r="S3">
-        <v>0.02478718465287629</v>
+        <v>0.04007982630919498</v>
       </c>
       <c r="T3">
-        <v>0.02478718465287629</v>
+        <v>0.04007982630919498</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.26149754195757</v>
+        <v>3.374819</v>
       </c>
       <c r="H4">
-        <v>3.26149754195757</v>
+        <v>10.124457</v>
       </c>
       <c r="I4">
-        <v>0.1380199749912063</v>
+        <v>0.0662069584361419</v>
       </c>
       <c r="J4">
-        <v>0.1380199749912063</v>
+        <v>0.0662069584361419</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.34034842799346</v>
+        <v>6.346253666666667</v>
       </c>
       <c r="N4">
-        <v>6.34034842799346</v>
+        <v>19.038761</v>
       </c>
       <c r="O4">
-        <v>0.9502214088217007</v>
+        <v>0.9446330608455225</v>
       </c>
       <c r="P4">
-        <v>0.9502214088217007</v>
+        <v>0.9446330608455226</v>
       </c>
       <c r="Q4">
-        <v>20.67903081305521</v>
+        <v>21.41745745308633</v>
       </c>
       <c r="R4">
-        <v>20.67903081305521</v>
+        <v>192.757117077777</v>
       </c>
       <c r="S4">
-        <v>0.13114953508168</v>
+        <v>0.062541281796805</v>
       </c>
       <c r="T4">
-        <v>0.13114953508168</v>
+        <v>0.06254128179680501</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.26149754195757</v>
+        <v>3.374819</v>
       </c>
       <c r="H5">
-        <v>3.26149754195757</v>
+        <v>10.124457</v>
       </c>
       <c r="I5">
-        <v>0.1380199749912063</v>
+        <v>0.0662069584361419</v>
       </c>
       <c r="J5">
-        <v>0.1380199749912063</v>
+        <v>0.0662069584361419</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.332147444158755</v>
+        <v>0.3719673333333333</v>
       </c>
       <c r="N5">
-        <v>0.332147444158755</v>
+        <v>1.115902</v>
       </c>
       <c r="O5">
-        <v>0.04977859117829934</v>
+        <v>0.05536693915447755</v>
       </c>
       <c r="P5">
-        <v>0.04977859117829934</v>
+        <v>0.05536693915447755</v>
       </c>
       <c r="Q5">
-        <v>1.083298072691269</v>
+        <v>1.255322423912667</v>
       </c>
       <c r="R5">
-        <v>1.083298072691269</v>
+        <v>11.297901815214</v>
       </c>
       <c r="S5">
-        <v>0.006870439909526359</v>
+        <v>0.003665676639336893</v>
       </c>
       <c r="T5">
-        <v>0.006870439909526359</v>
+        <v>0.003665676639336893</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.60228585853633</v>
+        <v>10.699319</v>
       </c>
       <c r="H6">
-        <v>8.60228585853633</v>
+        <v>32.097957</v>
       </c>
       <c r="I6">
-        <v>0.3640313272625603</v>
+        <v>0.2098984770229228</v>
       </c>
       <c r="J6">
-        <v>0.3640313272625603</v>
+        <v>0.2098984770229228</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.34034842799346</v>
+        <v>6.346253666666667</v>
       </c>
       <c r="N6">
-        <v>6.34034842799346</v>
+        <v>19.038761</v>
       </c>
       <c r="O6">
-        <v>0.9502214088217007</v>
+        <v>0.9446330608455225</v>
       </c>
       <c r="P6">
-        <v>0.9502214088217007</v>
+        <v>0.9446330608455226</v>
       </c>
       <c r="Q6">
-        <v>54.54148962032119</v>
+        <v>67.90059243458634</v>
       </c>
       <c r="R6">
-        <v>54.54148962032119</v>
+        <v>611.1053319112771</v>
       </c>
       <c r="S6">
-        <v>0.3459103606466636</v>
+        <v>0.1982770408169772</v>
       </c>
       <c r="T6">
-        <v>0.3459103606466636</v>
+        <v>0.1982770408169772</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.60228585853633</v>
+        <v>10.699319</v>
       </c>
       <c r="H7">
-        <v>8.60228585853633</v>
+        <v>32.097957</v>
       </c>
       <c r="I7">
-        <v>0.3640313272625603</v>
+        <v>0.2098984770229228</v>
       </c>
       <c r="J7">
-        <v>0.3640313272625603</v>
+        <v>0.2098984770229228</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.332147444158755</v>
+        <v>0.3719673333333333</v>
       </c>
       <c r="N7">
-        <v>0.332147444158755</v>
+        <v>1.115902</v>
       </c>
       <c r="O7">
-        <v>0.04977859117829934</v>
+        <v>0.05536693915447755</v>
       </c>
       <c r="P7">
-        <v>0.04977859117829934</v>
+        <v>0.05536693915447755</v>
       </c>
       <c r="Q7">
-        <v>2.857227261835844</v>
+        <v>3.979797156912667</v>
       </c>
       <c r="R7">
-        <v>2.857227261835844</v>
+        <v>35.818174412214</v>
       </c>
       <c r="S7">
-        <v>0.01812096661589669</v>
+        <v>0.01162143620594567</v>
       </c>
       <c r="T7">
-        <v>0.01812096661589669</v>
+        <v>0.01162143620594567</v>
       </c>
     </row>
   </sheetData>
